--- a/项目实现/云函数测试报告.xlsx
+++ b/项目实现/云函数测试报告.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new-flappy-bird\项目实现\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cx\Desktop\new-flappy-bird\项目实现\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BE720F-1CE7-42DA-96BA-B9F83950EC93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD608576-E62B-4846-9680-F7B6C94395BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1438,7 +1438,7 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3764,21 +3764,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="A49:M49"/>
     <mergeCell ref="A68:M68"/>
     <mergeCell ref="A70:M70"/>
     <mergeCell ref="A52:M52"/>
@@ -3786,6 +3771,21 @@
     <mergeCell ref="A58:M58"/>
     <mergeCell ref="A62:M62"/>
     <mergeCell ref="A65:M65"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A16:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
